--- a/src/main/resources/water_data.xlsx
+++ b/src/main/resources/water_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ludowica\IdeaProjects\water-quality-analysis-api\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6857ED7-10D4-4417-868C-4D3882D6D972}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F63E8C-1C26-42F3-B578-72E30B1A4E84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="273" xr2:uid="{E980897B-928A-4A84-8AF5-3F9278A3BA43}"/>
   </bookViews>
@@ -2007,12 +2007,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7506CDD9-99FD-42BD-8590-BC1E323BDA14}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H1377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B247" sqref="B247:B264"/>
+      <selection pane="bottomLeft" activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,7 +2052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>141</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>141</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>141</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>141</v>
       </c>
@@ -2157,7 +2156,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>141</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>141</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>141</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>141</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>141</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>141</v>
       </c>
@@ -2313,7 +2312,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>141</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>141</v>
       </c>
@@ -2365,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -2469,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
@@ -2521,7 +2520,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>31</v>
       </c>
@@ -2599,7 +2598,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
@@ -2625,7 +2624,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>31</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>31</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>31</v>
       </c>
@@ -2703,7 +2702,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>31</v>
       </c>
@@ -2729,7 +2728,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>31</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>31</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>31</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>31</v>
       </c>
@@ -2833,7 +2832,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>31</v>
       </c>
@@ -2859,7 +2858,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>31</v>
       </c>
@@ -2885,7 +2884,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>31</v>
       </c>
@@ -2911,7 +2910,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>31</v>
       </c>
@@ -2937,7 +2936,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>31</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>31</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>93.2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>31</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>149.19999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>31</v>
       </c>
@@ -3041,7 +3040,7 @@
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>31</v>
       </c>
@@ -3067,7 +3066,7 @@
         <v>144.1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>31</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>140.9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>134</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>134</v>
       </c>
@@ -3145,7 +3144,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>134</v>
       </c>
@@ -3171,7 +3170,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>134</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>134</v>
       </c>
@@ -3223,7 +3222,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>134</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>134</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>134</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>134</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>134</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>134</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>134</v>
       </c>
@@ -3405,7 +3404,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>134</v>
       </c>
@@ -3431,7 +3430,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>134</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>134</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>134</v>
       </c>
@@ -3509,7 +3508,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>37</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>37</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>37</v>
       </c>
@@ -3587,7 +3586,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>37</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>37</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>37</v>
       </c>
@@ -3665,7 +3664,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>37</v>
       </c>
@@ -3691,7 +3690,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>37</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>37</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>37</v>
       </c>
@@ -3769,7 +3768,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>37</v>
       </c>
@@ -3795,7 +3794,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>37</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>97.2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>37</v>
       </c>
@@ -3847,7 +3846,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>37</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>37</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>37</v>
       </c>
@@ -3925,7 +3924,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>37</v>
       </c>
@@ -3951,7 +3950,7 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>37</v>
       </c>
@@ -3977,7 +3976,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>37</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>37</v>
       </c>
@@ -4029,7 +4028,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>37</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>37</v>
       </c>
@@ -4081,7 +4080,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>37</v>
       </c>
@@ -4107,7 +4106,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>37</v>
       </c>
@@ -4133,7 +4132,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>37</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>37</v>
       </c>
@@ -4185,7 +4184,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>37</v>
       </c>
@@ -4211,7 +4210,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>37</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>37</v>
       </c>
@@ -4263,7 +4262,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>37</v>
       </c>
@@ -4289,7 +4288,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>37</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>37</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>37</v>
       </c>
@@ -4367,7 +4366,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>37</v>
       </c>
@@ -4393,7 +4392,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>37</v>
       </c>
@@ -4419,7 +4418,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>37</v>
       </c>
@@ -4445,7 +4444,7 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>37</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>37</v>
       </c>
@@ -4497,7 +4496,7 @@
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>37</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>138.6</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>37</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>141.30000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>37</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>143.1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>37</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>140.6</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>37</v>
       </c>
@@ -4627,7 +4626,7 @@
         <v>133.1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>37</v>
       </c>
@@ -4653,7 +4652,7 @@
         <v>130.19999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>37</v>
       </c>
@@ -4679,7 +4678,7 @@
         <v>146.4</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>37</v>
       </c>
@@ -4705,7 +4704,7 @@
         <v>128.1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>37</v>
       </c>
@@ -4731,7 +4730,7 @@
         <v>129.4</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>37</v>
       </c>
@@ -4757,7 +4756,7 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>37</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>124.3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>37</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>138.4</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>37</v>
       </c>
@@ -4835,7 +4834,7 @@
         <v>136.5</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>37</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>138.9</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>148</v>
       </c>
@@ -4887,7 +4886,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>148</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>148</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>148</v>
       </c>
@@ -4965,7 +4964,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>148</v>
       </c>
@@ -4991,7 +4990,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>43</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>43</v>
       </c>
@@ -5043,7 +5042,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>43</v>
       </c>
@@ -5069,7 +5068,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>43</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>43</v>
       </c>
@@ -5121,7 +5120,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>43</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>43</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>43</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>43</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
         <v>43</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>43</v>
       </c>
@@ -5277,7 +5276,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
         <v>43</v>
       </c>
@@ -5303,7 +5302,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>43</v>
       </c>
@@ -5329,7 +5328,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
         <v>43</v>
       </c>
@@ -5355,7 +5354,7 @@
         <v>97.2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
         <v>43</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
         <v>43</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
         <v>43</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
         <v>43</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
         <v>43</v>
       </c>
@@ -5485,7 +5484,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
         <v>43</v>
       </c>
@@ -5511,7 +5510,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
         <v>43</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
         <v>43</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
         <v>43</v>
       </c>
@@ -5589,7 +5588,7 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
         <v>43</v>
       </c>
@@ -5615,7 +5614,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
         <v>43</v>
       </c>
@@ -5641,7 +5640,7 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
         <v>43</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
         <v>43</v>
       </c>
@@ -5693,7 +5692,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
         <v>43</v>
       </c>
@@ -5719,7 +5718,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
         <v>43</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
         <v>43</v>
       </c>
@@ -5771,7 +5770,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
         <v>43</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
         <v>43</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>43</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
         <v>43</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
         <v>43</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
         <v>43</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
         <v>43</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
         <v>43</v>
       </c>
@@ -5976,7 +5975,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
         <v>43</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
         <v>43</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
         <v>43</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
         <v>43</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
         <v>43</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>43</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
         <v>43</v>
       </c>
@@ -6158,7 +6157,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
         <v>43</v>
       </c>
@@ -6184,7 +6183,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
         <v>43</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
         <v>43</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
         <v>43</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
         <v>43</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
         <v>43</v>
       </c>
@@ -6314,7 +6313,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
         <v>43</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
         <v>43</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
         <v>43</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
         <v>43</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
         <v>43</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
         <v>43</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
         <v>43</v>
       </c>
@@ -6496,7 +6495,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
         <v>43</v>
       </c>
@@ -6522,7 +6521,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="18" t="s">
         <v>43</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
         <v>43</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
         <v>43</v>
       </c>
@@ -6600,7 +6599,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
         <v>43</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
         <v>43</v>
       </c>
@@ -6652,7 +6651,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
         <v>43</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
         <v>43</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
         <v>43</v>
       </c>
@@ -6730,7 +6729,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
         <v>43</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
         <v>43</v>
       </c>
@@ -6782,7 +6781,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
         <v>43</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
         <v>43</v>
       </c>
@@ -6834,7 +6833,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
         <v>43</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
         <v>43</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
         <v>43</v>
       </c>
@@ -6912,7 +6911,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
         <v>43</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
         <v>43</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
         <v>43</v>
       </c>
@@ -6990,7 +6989,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
         <v>43</v>
       </c>
@@ -7016,7 +7015,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
         <v>43</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
         <v>43</v>
       </c>
@@ -7068,7 +7067,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
         <v>43</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
         <v>43</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
         <v>43</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
         <v>43</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
         <v>43</v>
       </c>
@@ -7198,7 +7197,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
         <v>43</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
         <v>43</v>
       </c>
@@ -7250,7 +7249,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="18" t="s">
         <v>43</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
         <v>43</v>
       </c>
@@ -7302,7 +7301,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
         <v>43</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="s">
         <v>43</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
         <v>43</v>
       </c>
@@ -7380,7 +7379,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
         <v>43</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
         <v>43</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
         <v>43</v>
       </c>
@@ -7458,7 +7457,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="18" t="s">
         <v>43</v>
       </c>
@@ -7484,7 +7483,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="18" t="s">
         <v>43</v>
       </c>
@@ -7510,7 +7509,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="18" t="s">
         <v>43</v>
       </c>
@@ -7536,7 +7535,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="18" t="s">
         <v>43</v>
       </c>
@@ -7562,7 +7561,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="18" t="s">
         <v>43</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="18" t="s">
         <v>43</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="18" t="s">
         <v>43</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
         <v>43</v>
       </c>
@@ -7666,7 +7665,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="18" t="s">
         <v>43</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="18" t="s">
         <v>43</v>
       </c>
@@ -7718,7 +7717,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="18" t="s">
         <v>43</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="18" t="s">
         <v>43</v>
       </c>
@@ -7770,7 +7769,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="18" t="s">
         <v>43</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>24</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>24</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="22" t="s">
         <v>15</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="22" t="s">
         <v>15</v>
       </c>
@@ -8472,7 +8471,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="22" t="s">
         <v>15</v>
       </c>
@@ -8498,7 +8497,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="22" t="s">
         <v>15</v>
       </c>
@@ -8524,7 +8523,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="22" t="s">
         <v>15</v>
       </c>
@@ -8550,7 +8549,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="22" t="s">
         <v>15</v>
       </c>
@@ -8576,7 +8575,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="22" t="s">
         <v>15</v>
       </c>
@@ -8602,7 +8601,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="22" t="s">
         <v>15</v>
       </c>
@@ -8628,7 +8627,7 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="22" t="s">
         <v>15</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="22" t="s">
         <v>15</v>
       </c>
@@ -8680,7 +8679,7 @@
         <v>112.3</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="22" t="s">
         <v>15</v>
       </c>
@@ -8706,7 +8705,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="22" t="s">
         <v>15</v>
       </c>
@@ -8732,7 +8731,7 @@
         <v>110.7</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="22" t="s">
         <v>15</v>
       </c>
@@ -8758,7 +8757,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="22" t="s">
         <v>15</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="22" t="s">
         <v>15</v>
       </c>
@@ -8810,7 +8809,7 @@
         <v>109.1</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="22" t="s">
         <v>15</v>
       </c>
@@ -8836,7 +8835,7 @@
         <v>109.9</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="22" t="s">
         <v>15</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>111.9</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="22" t="s">
         <v>15</v>
       </c>
@@ -8888,7 +8887,7 @@
         <v>113.7</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>25</v>
       </c>
@@ -8914,7 +8913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>25</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>25</v>
       </c>
@@ -8966,7 +8965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>25</v>
       </c>
@@ -8992,7 +8991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>25</v>
       </c>
@@ -9018,7 +9017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>25</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>108</v>
       </c>
@@ -9070,7 +9069,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>108</v>
       </c>
@@ -9096,7 +9095,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>108</v>
       </c>
@@ -9122,7 +9121,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>108</v>
       </c>
@@ -9148,7 +9147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>108</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>108</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>108</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>108</v>
       </c>
@@ -9252,7 +9251,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>108</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>108</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>108</v>
       </c>
@@ -9330,7 +9329,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>108</v>
       </c>
@@ -9356,7 +9355,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>108</v>
       </c>
@@ -9382,7 +9381,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>108</v>
       </c>
@@ -9408,7 +9407,7 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>27</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>27</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="18" t="s">
         <v>63</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="18" t="s">
         <v>63</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="18" t="s">
         <v>63</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="18" t="s">
         <v>63</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="18" t="s">
         <v>63</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="18" t="s">
         <v>63</v>
       </c>
@@ -9616,7 +9615,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="18" t="s">
         <v>63</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="18" t="s">
         <v>63</v>
       </c>
@@ -9668,7 +9667,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>29</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>29</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>29</v>
       </c>
@@ -9746,7 +9745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>29</v>
       </c>
@@ -9772,7 +9771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>29</v>
       </c>
@@ -9798,7 +9797,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>29</v>
       </c>
@@ -9824,7 +9823,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="43" t="s">
         <v>9</v>
       </c>
@@ -9850,7 +9849,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="43" t="s">
         <v>9</v>
       </c>
@@ -9876,7 +9875,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="43" t="s">
         <v>9</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="43" t="s">
         <v>9</v>
       </c>
@@ -9928,7 +9927,7 @@
         <v>109.7</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="43" t="s">
         <v>9</v>
       </c>
@@ -9954,7 +9953,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="43" t="s">
         <v>9</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="18" t="s">
         <v>66</v>
       </c>
@@ -10006,7 +10005,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="18" t="s">
         <v>66</v>
       </c>
@@ -10032,7 +10031,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="18" t="s">
         <v>66</v>
       </c>
@@ -10058,7 +10057,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="18" t="s">
         <v>66</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="18" t="s">
         <v>66</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="18" t="s">
         <v>66</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="18" t="s">
         <v>66</v>
       </c>
@@ -10162,7 +10161,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="18" t="s">
         <v>66</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="18" t="s">
         <v>66</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="18" t="s">
         <v>66</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="18" t="s">
         <v>66</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="18" t="s">
         <v>66</v>
       </c>
@@ -10292,7 +10291,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="18" t="s">
         <v>66</v>
       </c>
@@ -10318,7 +10317,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="18" t="s">
         <v>66</v>
       </c>
@@ -10344,7 +10343,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="18" t="s">
         <v>66</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="18" t="s">
         <v>66</v>
       </c>
@@ -10396,7 +10395,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="18" t="s">
         <v>66</v>
       </c>
@@ -10422,7 +10421,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="18" t="s">
         <v>66</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="18" t="s">
         <v>66</v>
       </c>
@@ -10474,7 +10473,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="18" t="s">
         <v>66</v>
       </c>
@@ -10500,7 +10499,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="18" t="s">
         <v>66</v>
       </c>
@@ -10526,7 +10525,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="18" t="s">
         <v>66</v>
       </c>
@@ -10552,7 +10551,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="18" t="s">
         <v>66</v>
       </c>
@@ -10578,7 +10577,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="18" t="s">
         <v>66</v>
       </c>
@@ -10604,7 +10603,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="18" t="s">
         <v>66</v>
       </c>
@@ -10630,7 +10629,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="18" t="s">
         <v>66</v>
       </c>
@@ -10656,7 +10655,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="18" t="s">
         <v>66</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="18" t="s">
         <v>66</v>
       </c>
@@ -10708,7 +10707,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="18" t="s">
         <v>66</v>
       </c>
@@ -10734,7 +10733,7 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="18" t="s">
         <v>66</v>
       </c>
@@ -10760,7 +10759,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="18" t="s">
         <v>66</v>
       </c>
@@ -10786,7 +10785,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="18" t="s">
         <v>66</v>
       </c>
@@ -10812,7 +10811,7 @@
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="18" t="s">
         <v>66</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="18" t="s">
         <v>66</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="18" t="s">
         <v>66</v>
       </c>
@@ -10890,7 +10889,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="18" t="s">
         <v>66</v>
       </c>
@@ -10916,7 +10915,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="18" t="s">
         <v>66</v>
       </c>
@@ -10942,7 +10941,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="18" t="s">
         <v>66</v>
       </c>
@@ -10968,7 +10967,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="22" t="s">
         <v>19</v>
       </c>
@@ -10994,7 +10993,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="22" t="s">
         <v>19</v>
       </c>
@@ -11020,7 +11019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="22" t="s">
         <v>19</v>
       </c>
@@ -11046,7 +11045,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="22" t="s">
         <v>19</v>
       </c>
@@ -11072,7 +11071,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="22" t="s">
         <v>19</v>
       </c>
@@ -11098,7 +11097,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="22" t="s">
         <v>19</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="22" t="s">
         <v>19</v>
       </c>
@@ -11150,7 +11149,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="22" t="s">
         <v>19</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>140</v>
       </c>
@@ -11202,7 +11201,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>140</v>
       </c>
@@ -11228,7 +11227,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>140</v>
       </c>
@@ -11254,7 +11253,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>140</v>
       </c>
@@ -11280,7 +11279,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>140</v>
       </c>
@@ -11306,7 +11305,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>140</v>
       </c>
@@ -11332,7 +11331,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>140</v>
       </c>
@@ -11358,7 +11357,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>140</v>
       </c>
@@ -11384,7 +11383,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>140</v>
       </c>
@@ -11410,7 +11409,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>140</v>
       </c>
@@ -11436,7 +11435,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>140</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>140</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>140</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>140</v>
       </c>
@@ -11540,7 +11539,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="22" t="s">
         <v>10</v>
       </c>
@@ -11566,7 +11565,7 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="22" t="s">
         <v>10</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="22" t="s">
         <v>10</v>
       </c>
@@ -11618,7 +11617,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="22" t="s">
         <v>10</v>
       </c>
@@ -11644,7 +11643,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="22" t="s">
         <v>10</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="22" t="s">
         <v>10</v>
       </c>
@@ -11696,7 +11695,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="22" t="s">
         <v>10</v>
       </c>
@@ -11722,7 +11721,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="22" t="s">
         <v>10</v>
       </c>
@@ -11748,7 +11747,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="22" t="s">
         <v>10</v>
       </c>
@@ -11774,7 +11773,7 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="22" t="s">
         <v>10</v>
       </c>
@@ -11800,7 +11799,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="22" t="s">
         <v>10</v>
       </c>
@@ -11826,7 +11825,7 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="22" t="s">
         <v>10</v>
       </c>
@@ -11852,7 +11851,7 @@
         <v>112.3</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="22" t="s">
         <v>10</v>
       </c>
@@ -11878,7 +11877,7 @@
         <v>115.1</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="22" t="s">
         <v>10</v>
       </c>
@@ -11904,7 +11903,7 @@
         <v>113.2</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="22" t="s">
         <v>10</v>
       </c>
@@ -11930,7 +11929,7 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="22" t="s">
         <v>10</v>
       </c>
@@ -11956,7 +11955,7 @@
         <v>111.5</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="22" t="s">
         <v>10</v>
       </c>
@@ -11982,7 +11981,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="22" t="s">
         <v>10</v>
       </c>
@@ -12008,7 +12007,7 @@
         <v>114.3</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="22" t="s">
         <v>8</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="22" t="s">
         <v>8</v>
       </c>
@@ -12060,7 +12059,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="22" t="s">
         <v>8</v>
       </c>
@@ -12086,7 +12085,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="22" t="s">
         <v>8</v>
       </c>
@@ -12112,7 +12111,7 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="22" t="s">
         <v>8</v>
       </c>
@@ -12138,7 +12137,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="22" t="s">
         <v>8</v>
       </c>
@@ -12164,7 +12163,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="22" t="s">
         <v>8</v>
       </c>
@@ -12190,7 +12189,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="22" t="s">
         <v>8</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="22" t="s">
         <v>8</v>
       </c>
@@ -12242,7 +12241,7 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="22" t="s">
         <v>8</v>
       </c>
@@ -12268,7 +12267,7 @@
         <v>115.6</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="22" t="s">
         <v>8</v>
       </c>
@@ -12294,7 +12293,7 @@
         <v>112.7</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="22" t="s">
         <v>8</v>
       </c>
@@ -12320,7 +12319,7 @@
         <v>110.8</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="22" t="s">
         <v>8</v>
       </c>
@@ -12346,7 +12345,7 @@
         <v>112.2</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="22" t="s">
         <v>8</v>
       </c>
@@ -12372,7 +12371,7 @@
         <v>116.4</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="22" t="s">
         <v>8</v>
       </c>
@@ -12398,7 +12397,7 @@
         <v>114.2</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="22" t="s">
         <v>8</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>112.4</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="22" t="s">
         <v>8</v>
       </c>
@@ -12450,7 +12449,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="22" t="s">
         <v>8</v>
       </c>
@@ -12476,7 +12475,7 @@
         <v>119.7</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="18" t="s">
         <v>75</v>
       </c>
@@ -12502,7 +12501,7 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="18" t="s">
         <v>75</v>
       </c>
@@ -12528,7 +12527,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="18" t="s">
         <v>75</v>
       </c>
@@ -12554,7 +12553,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="18" t="s">
         <v>75</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="18" t="s">
         <v>75</v>
       </c>
@@ -12606,7 +12605,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="18" t="s">
         <v>75</v>
       </c>
@@ -12632,7 +12631,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="18" t="s">
         <v>75</v>
       </c>
@@ -12658,7 +12657,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="18" t="s">
         <v>75</v>
       </c>
@@ -12684,7 +12683,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="18" t="s">
         <v>75</v>
       </c>
@@ -12710,7 +12709,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="18" t="s">
         <v>75</v>
       </c>
@@ -12736,7 +12735,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="18" t="s">
         <v>75</v>
       </c>
@@ -12762,7 +12761,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="18" t="s">
         <v>75</v>
       </c>
@@ -12788,7 +12787,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="18" t="s">
         <v>75</v>
       </c>
@@ -12814,7 +12813,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="18" t="s">
         <v>75</v>
       </c>
@@ -12840,7 +12839,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="18" t="s">
         <v>75</v>
       </c>
@@ -12866,7 +12865,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="18" t="s">
         <v>75</v>
       </c>
@@ -12892,7 +12891,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="18" t="s">
         <v>75</v>
       </c>
@@ -12918,7 +12917,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="18" t="s">
         <v>75</v>
       </c>
@@ -12944,7 +12943,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="18" t="s">
         <v>75</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="18" t="s">
         <v>75</v>
       </c>
@@ -12996,7 +12995,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="18" t="s">
         <v>75</v>
       </c>
@@ -13022,7 +13021,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="18" t="s">
         <v>75</v>
       </c>
@@ -13048,7 +13047,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="18" t="s">
         <v>75</v>
       </c>
@@ -13074,7 +13073,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="18" t="s">
         <v>75</v>
       </c>
@@ -13100,7 +13099,7 @@
         <v>83.1</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="18" t="s">
         <v>75</v>
       </c>
@@ -13126,7 +13125,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="18" t="s">
         <v>75</v>
       </c>
@@ -13152,7 +13151,7 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="18" t="s">
         <v>75</v>
       </c>
@@ -13178,7 +13177,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="18" t="s">
         <v>75</v>
       </c>
@@ -13204,7 +13203,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="18" t="s">
         <v>75</v>
       </c>
@@ -13230,7 +13229,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="18" t="s">
         <v>75</v>
       </c>
@@ -13256,7 +13255,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="18" t="s">
         <v>75</v>
       </c>
@@ -13282,7 +13281,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="18" t="s">
         <v>75</v>
       </c>
@@ -13308,7 +13307,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="18" t="s">
         <v>75</v>
       </c>
@@ -13334,7 +13333,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="18" t="s">
         <v>75</v>
       </c>
@@ -13360,7 +13359,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="18" t="s">
         <v>75</v>
       </c>
@@ -13386,7 +13385,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="18" t="s">
         <v>75</v>
       </c>
@@ -13412,7 +13411,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="18" t="s">
         <v>75</v>
       </c>
@@ -13438,7 +13437,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="18" t="s">
         <v>75</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="18" t="s">
         <v>75</v>
       </c>
@@ -13490,7 +13489,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="18" t="s">
         <v>75</v>
       </c>
@@ -13516,7 +13515,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="18" t="s">
         <v>75</v>
       </c>
@@ -13542,7 +13541,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="18" t="s">
         <v>75</v>
       </c>
@@ -13568,7 +13567,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="18" t="s">
         <v>83</v>
       </c>
@@ -13594,7 +13593,7 @@
         <v>86.2</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="18" t="s">
         <v>83</v>
       </c>
@@ -13620,7 +13619,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="18" t="s">
         <v>83</v>
       </c>
@@ -13646,7 +13645,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="18" t="s">
         <v>83</v>
       </c>
@@ -13672,7 +13671,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="18" t="s">
         <v>83</v>
       </c>
@@ -13698,7 +13697,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="18" t="s">
         <v>83</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="18" t="s">
         <v>83</v>
       </c>
@@ -13750,7 +13749,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="18" t="s">
         <v>83</v>
       </c>
@@ -13776,7 +13775,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="18" t="s">
         <v>83</v>
       </c>
@@ -13802,7 +13801,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="18" t="s">
         <v>83</v>
       </c>
@@ -13828,7 +13827,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="18" t="s">
         <v>83</v>
       </c>
@@ -13854,7 +13853,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="18" t="s">
         <v>83</v>
       </c>
@@ -13880,7 +13879,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="18" t="s">
         <v>83</v>
       </c>
@@ -13906,7 +13905,7 @@
         <v>88.4</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="18" t="s">
         <v>83</v>
       </c>
@@ -13932,7 +13931,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="18" t="s">
         <v>83</v>
       </c>
@@ -13958,7 +13957,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="18" t="s">
         <v>83</v>
       </c>
@@ -13984,7 +13983,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="18" t="s">
         <v>83</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="18" t="s">
         <v>83</v>
       </c>
@@ -14036,7 +14035,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="18" t="s">
         <v>83</v>
       </c>
@@ -14062,7 +14061,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="18" t="s">
         <v>83</v>
       </c>
@@ -14088,7 +14087,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="18" t="s">
         <v>83</v>
       </c>
@@ -14114,7 +14113,7 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="18" t="s">
         <v>83</v>
       </c>
@@ -14140,7 +14139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="18" t="s">
         <v>83</v>
       </c>
@@ -14166,7 +14165,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="18" t="s">
         <v>83</v>
       </c>
@@ -14192,7 +14191,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="18" t="s">
         <v>83</v>
       </c>
@@ -14218,7 +14217,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="18" t="s">
         <v>83</v>
       </c>
@@ -14244,7 +14243,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="18" t="s">
         <v>83</v>
       </c>
@@ -14270,7 +14269,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="18" t="s">
         <v>83</v>
       </c>
@@ -14296,7 +14295,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="18" t="s">
         <v>83</v>
       </c>
@@ -14322,7 +14321,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="18" t="s">
         <v>83</v>
       </c>
@@ -14348,7 +14347,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="18" t="s">
         <v>83</v>
       </c>
@@ -14374,7 +14373,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="18" t="s">
         <v>83</v>
       </c>
@@ -14400,7 +14399,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="18" t="s">
         <v>83</v>
       </c>
@@ -14426,7 +14425,7 @@
         <v>83.4</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="18" t="s">
         <v>83</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="18" t="s">
         <v>83</v>
       </c>
@@ -14478,7 +14477,7 @@
         <v>106.1</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="18" t="s">
         <v>83</v>
       </c>
@@ -14504,7 +14503,7 @@
         <v>104.3</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="18" t="s">
         <v>83</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="18" t="s">
         <v>83</v>
       </c>
@@ -14556,7 +14555,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="18" t="s">
         <v>83</v>
       </c>
@@ -14582,7 +14581,7 @@
         <v>116.1</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="18" t="s">
         <v>83</v>
       </c>
@@ -14608,7 +14607,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="18" t="s">
         <v>83</v>
       </c>
@@ -14634,7 +14633,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="18" t="s">
         <v>83</v>
       </c>
@@ -14660,7 +14659,7 @@
         <v>93.2</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="18" t="s">
         <v>83</v>
       </c>
@@ -14686,7 +14685,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="18" t="s">
         <v>83</v>
       </c>
@@ -14712,7 +14711,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="18" t="s">
         <v>83</v>
       </c>
@@ -14738,7 +14737,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="18" t="s">
         <v>83</v>
       </c>
@@ -14764,7 +14763,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="18" t="s">
         <v>83</v>
       </c>
@@ -14790,7 +14789,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="18" t="s">
         <v>83</v>
       </c>
@@ -14816,7 +14815,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="18" t="s">
         <v>83</v>
       </c>
@@ -14842,7 +14841,7 @@
         <v>104.1</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="18" t="s">
         <v>83</v>
       </c>
@@ -14868,7 +14867,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="18" t="s">
         <v>83</v>
       </c>
@@ -14894,7 +14893,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="18" t="s">
         <v>83</v>
       </c>
@@ -14920,7 +14919,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="18" t="s">
         <v>83</v>
       </c>
@@ -14946,7 +14945,7 @@
         <v>113.6</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="18" t="s">
         <v>83</v>
       </c>
@@ -14972,7 +14971,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="18" t="s">
         <v>83</v>
       </c>
@@ -14998,7 +14997,7 @@
         <v>119.3</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="18" t="s">
         <v>83</v>
       </c>
@@ -15024,7 +15023,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="18" t="s">
         <v>93</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="18" t="s">
         <v>93</v>
       </c>
@@ -15076,7 +15075,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="18" t="s">
         <v>93</v>
       </c>
@@ -15102,7 +15101,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="18" t="s">
         <v>93</v>
       </c>
@@ -15128,7 +15127,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="18" t="s">
         <v>93</v>
       </c>
@@ -15154,7 +15153,7 @@
         <v>106.4</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="18" t="s">
         <v>93</v>
       </c>
@@ -15180,7 +15179,7 @@
         <v>153.80000000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="18" t="s">
         <v>97</v>
       </c>
@@ -15206,7 +15205,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="18" t="s">
         <v>97</v>
       </c>
@@ -15232,7 +15231,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="18" t="s">
         <v>97</v>
       </c>
@@ -15258,7 +15257,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="18" t="s">
         <v>97</v>
       </c>
@@ -15284,7 +15283,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="18" t="s">
         <v>97</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="18" t="s">
         <v>97</v>
       </c>
@@ -15336,7 +15335,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="18" t="s">
         <v>97</v>
       </c>
@@ -15362,7 +15361,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="18" t="s">
         <v>97</v>
       </c>
@@ -15388,7 +15387,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="18" t="s">
         <v>97</v>
       </c>
@@ -15414,7 +15413,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="18" t="s">
         <v>97</v>
       </c>
@@ -15440,7 +15439,7 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="18" t="s">
         <v>97</v>
       </c>
@@ -15466,7 +15465,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="18" t="s">
         <v>97</v>
       </c>
@@ -15492,7 +15491,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="18" t="s">
         <v>97</v>
       </c>
@@ -15518,7 +15517,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="18" t="s">
         <v>97</v>
       </c>
@@ -15544,7 +15543,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="18" t="s">
         <v>97</v>
       </c>
@@ -15570,7 +15569,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="18" t="s">
         <v>97</v>
       </c>
@@ -15596,7 +15595,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="18" t="s">
         <v>97</v>
       </c>
@@ -15622,7 +15621,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="18" t="s">
         <v>97</v>
       </c>
@@ -15648,7 +15647,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="18" t="s">
         <v>97</v>
       </c>
@@ -15674,7 +15673,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="18" t="s">
         <v>97</v>
       </c>
@@ -15700,7 +15699,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="18" t="s">
         <v>97</v>
       </c>
@@ -15726,7 +15725,7 @@
         <v>156.19999999999999</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="18" t="s">
         <v>97</v>
       </c>
@@ -15752,7 +15751,7 @@
         <v>158.1</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="18" t="s">
         <v>97</v>
       </c>
@@ -15778,7 +15777,7 @@
         <v>156.6</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="18" t="s">
         <v>97</v>
       </c>
@@ -15804,7 +15803,7 @@
         <v>158.80000000000001</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="18" t="s">
         <v>97</v>
       </c>
@@ -15830,7 +15829,7 @@
         <v>156.4</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="18" t="s">
         <v>97</v>
       </c>
@@ -15856,7 +15855,7 @@
         <v>157.19999999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="18" t="s">
         <v>97</v>
       </c>
@@ -15882,7 +15881,7 @@
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="18" t="s">
         <v>97</v>
       </c>
@@ -15908,7 +15907,7 @@
         <v>156.1</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="18" t="s">
         <v>97</v>
       </c>
@@ -15934,7 +15933,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="18" t="s">
         <v>97</v>
       </c>
@@ -15960,7 +15959,7 @@
         <v>156.19999999999999</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="18" t="s">
         <v>97</v>
       </c>
@@ -15986,7 +15985,7 @@
         <v>158.80000000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="18" t="s">
         <v>97</v>
       </c>
@@ -16012,7 +16011,7 @@
         <v>141.19999999999999</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="18" t="s">
         <v>97</v>
       </c>
@@ -16038,7 +16037,7 @@
         <v>140.6</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="18" t="s">
         <v>97</v>
       </c>
@@ -16064,7 +16063,7 @@
         <v>133.30000000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="18" t="s">
         <v>97</v>
       </c>
@@ -16090,7 +16089,7 @@
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="18" t="s">
         <v>97</v>
       </c>
@@ -16116,7 +16115,7 @@
         <v>130.80000000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="18" t="s">
         <v>97</v>
       </c>
@@ -16142,7 +16141,7 @@
         <v>128.30000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="18" t="s">
         <v>97</v>
       </c>
@@ -16168,7 +16167,7 @@
         <v>141.30000000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="18" t="s">
         <v>97</v>
       </c>
@@ -16194,7 +16193,7 @@
         <v>143.6</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="18" t="s">
         <v>97</v>
       </c>
@@ -16220,7 +16219,7 @@
         <v>138.19999999999999</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="18" t="s">
         <v>104</v>
       </c>
@@ -16246,7 +16245,7 @@
         <v>93.2</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="18" t="s">
         <v>104</v>
       </c>
@@ -16272,7 +16271,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="18" t="s">
         <v>104</v>
       </c>
@@ -16298,7 +16297,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="18" t="s">
         <v>104</v>
       </c>
@@ -16324,7 +16323,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="18" t="s">
         <v>104</v>
       </c>
@@ -16350,7 +16349,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="18" t="s">
         <v>104</v>
       </c>
@@ -16376,7 +16375,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="18" t="s">
         <v>104</v>
       </c>
@@ -16402,7 +16401,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="18" t="s">
         <v>104</v>
       </c>
@@ -16428,7 +16427,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="18" t="s">
         <v>104</v>
       </c>
@@ -16454,7 +16453,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="18" t="s">
         <v>104</v>
       </c>
@@ -16480,7 +16479,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="18" t="s">
         <v>104</v>
       </c>
@@ -16506,7 +16505,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="18" t="s">
         <v>104</v>
       </c>
@@ -16532,7 +16531,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="18" t="s">
         <v>104</v>
       </c>
@@ -16558,7 +16557,7 @@
         <v>139.6</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="18" t="s">
         <v>104</v>
       </c>
@@ -16584,7 +16583,7 @@
         <v>146.1</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="18" t="s">
         <v>104</v>
       </c>
@@ -16610,7 +16609,7 @@
         <v>143.19999999999999</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="18" t="s">
         <v>104</v>
       </c>
@@ -16636,7 +16635,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="18" t="s">
         <v>104</v>
       </c>
@@ -16662,7 +16661,7 @@
         <v>128.4</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="18" t="s">
         <v>104</v>
       </c>
@@ -16688,7 +16687,7 @@
         <v>121.3</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="18" t="s">
         <v>104</v>
       </c>
@@ -16714,7 +16713,7 @@
         <v>128.30000000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="18" t="s">
         <v>104</v>
       </c>
@@ -16740,7 +16739,7 @@
         <v>122.1</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="18" t="s">
         <v>104</v>
       </c>
@@ -16766,7 +16765,7 @@
         <v>126.5</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="18" t="s">
         <v>104</v>
       </c>
@@ -16792,7 +16791,7 @@
         <v>139.19999999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="18" t="s">
         <v>104</v>
       </c>
@@ -16818,7 +16817,7 @@
         <v>148.1</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="18" t="s">
         <v>104</v>
       </c>
@@ -16844,7 +16843,7 @@
         <v>153.19999999999999</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>109</v>
       </c>
@@ -16870,7 +16869,7 @@
         <v>164.8</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>109</v>
       </c>
@@ -16896,7 +16895,7 @@
         <v>169.4</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>109</v>
       </c>
@@ -16922,7 +16921,7 @@
         <v>164.3</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>109</v>
       </c>
@@ -16948,7 +16947,7 @@
         <v>161.9</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>109</v>
       </c>
@@ -16974,7 +16973,7 @@
         <v>161.80000000000001</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>109</v>
       </c>
@@ -17000,7 +16999,7 @@
         <v>162.1</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>109</v>
       </c>
@@ -17026,7 +17025,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>109</v>
       </c>
@@ -17052,7 +17051,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>109</v>
       </c>
@@ -17078,7 +17077,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>109</v>
       </c>
@@ -17104,7 +17103,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>109</v>
       </c>
@@ -17130,7 +17129,7 @@
         <v>111.9</v>
       </c>
     </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>109</v>
       </c>
@@ -17156,7 +17155,7 @@
         <v>113.6</v>
       </c>
     </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>109</v>
       </c>
@@ -17182,7 +17181,7 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>109</v>
       </c>
@@ -17208,7 +17207,7 @@
         <v>86.2</v>
       </c>
     </row>
-    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>109</v>
       </c>
@@ -17234,7 +17233,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>109</v>
       </c>
@@ -17260,7 +17259,7 @@
         <v>85.1</v>
       </c>
     </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>109</v>
       </c>
@@ -17286,7 +17285,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>109</v>
       </c>
@@ -17312,7 +17311,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>109</v>
       </c>
@@ -17338,7 +17337,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>109</v>
       </c>
@@ -17364,7 +17363,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>109</v>
       </c>
@@ -17390,7 +17389,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>109</v>
       </c>
@@ -17416,7 +17415,7 @@
         <v>162.80000000000001</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>109</v>
       </c>
@@ -17442,7 +17441,7 @@
         <v>162.30000000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>109</v>
       </c>
@@ -17468,7 +17467,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>109</v>
       </c>
@@ -17494,7 +17493,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>109</v>
       </c>
@@ -17520,7 +17519,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>109</v>
       </c>
@@ -17546,7 +17545,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>109</v>
       </c>
@@ -17572,7 +17571,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>109</v>
       </c>
@@ -17598,7 +17597,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>109</v>
       </c>
@@ -17624,7 +17623,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>109</v>
       </c>
@@ -17650,7 +17649,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>109</v>
       </c>
@@ -17676,7 +17675,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>109</v>
       </c>
@@ -17702,7 +17701,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>109</v>
       </c>
@@ -17728,7 +17727,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>109</v>
       </c>
@@ -17754,7 +17753,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>109</v>
       </c>
@@ -17780,7 +17779,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>109</v>
       </c>
@@ -17806,7 +17805,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>109</v>
       </c>
@@ -17832,7 +17831,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>109</v>
       </c>
@@ -17858,7 +17857,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>109</v>
       </c>
@@ -17884,7 +17883,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>109</v>
       </c>
@@ -17910,7 +17909,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>109</v>
       </c>
@@ -17936,7 +17935,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>109</v>
       </c>
@@ -17962,7 +17961,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>109</v>
       </c>
@@ -17988,7 +17987,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>109</v>
       </c>
@@ -18014,7 +18013,7 @@
         <v>120.8</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>109</v>
       </c>
@@ -18040,7 +18039,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>109</v>
       </c>
@@ -18066,7 +18065,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>109</v>
       </c>
@@ -18092,7 +18091,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>109</v>
       </c>
@@ -18118,7 +18117,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>109</v>
       </c>
@@ -18144,7 +18143,7 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>109</v>
       </c>
@@ -18170,7 +18169,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>109</v>
       </c>
@@ -18196,7 +18195,7 @@
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>109</v>
       </c>
@@ -18222,7 +18221,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>109</v>
       </c>
@@ -18248,7 +18247,7 @@
         <v>197.9</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>109</v>
       </c>
@@ -18274,7 +18273,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
         <v>109</v>
       </c>
@@ -18300,7 +18299,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>109</v>
       </c>
@@ -18326,7 +18325,7 @@
         <v>191.8</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>109</v>
       </c>
@@ -18352,7 +18351,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>109</v>
       </c>
@@ -18378,7 +18377,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>109</v>
       </c>
@@ -18404,7 +18403,7 @@
         <v>197.2</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>109</v>
       </c>
@@ -18430,7 +18429,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>129</v>
       </c>
@@ -18456,7 +18455,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>129</v>
       </c>
@@ -18482,7 +18481,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>129</v>
       </c>
@@ -18508,7 +18507,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>129</v>
       </c>
@@ -18534,7 +18533,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>129</v>
       </c>
@@ -18560,7 +18559,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>129</v>
       </c>
@@ -18586,7 +18585,7 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>129</v>
       </c>
@@ -18612,7 +18611,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>129</v>
       </c>
@@ -18638,7 +18637,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>129</v>
       </c>
@@ -18664,7 +18663,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>129</v>
       </c>
@@ -18690,7 +18689,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>129</v>
       </c>
@@ -18716,7 +18715,7 @@
         <v>113.1</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>129</v>
       </c>
@@ -18742,7 +18741,7 @@
         <v>103.7</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>129</v>
       </c>
@@ -18768,7 +18767,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>129</v>
       </c>
@@ -18794,7 +18793,7 @@
         <v>104.2</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>129</v>
       </c>
@@ -18820,7 +18819,7 @@
         <v>102.3</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>129</v>
       </c>
@@ -18846,7 +18845,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>129</v>
       </c>
@@ -18872,7 +18871,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>129</v>
       </c>
@@ -18898,7 +18897,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>129</v>
       </c>
@@ -18924,7 +18923,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>129</v>
       </c>
@@ -18950,7 +18949,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
         <v>158</v>
       </c>
@@ -18976,7 +18975,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
         <v>158</v>
       </c>
@@ -19002,7 +19001,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
         <v>158</v>
       </c>
@@ -19028,7 +19027,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
         <v>158</v>
       </c>
@@ -19054,7 +19053,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
         <v>158</v>
       </c>
@@ -19080,7 +19079,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
         <v>158</v>
       </c>
@@ -19106,7 +19105,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
         <v>158</v>
       </c>
@@ -19132,7 +19131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
         <v>158</v>
       </c>
@@ -19158,7 +19157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
         <v>158</v>
       </c>
@@ -19184,7 +19183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
         <v>158</v>
       </c>
@@ -19210,7 +19209,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
         <v>158</v>
       </c>
@@ -19236,7 +19235,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
         <v>158</v>
       </c>
@@ -19262,7 +19261,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
         <v>158</v>
       </c>
@@ -19288,7 +19287,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
         <v>158</v>
       </c>
@@ -19314,7 +19313,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
         <v>158</v>
       </c>
@@ -19340,2149 +19339,2144 @@
         <v>316</v>
       </c>
     </row>
-    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B667" s="5" t="s">
         <v>179</v>
       </c>
       <c r="C667" s="6"/>
     </row>
-    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C668" s="6"/>
     </row>
-    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C669" s="6"/>
     </row>
-    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C670" s="6"/>
     </row>
-    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C671" s="6"/>
     </row>
-    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C672" s="6"/>
     </row>
-    <row r="673" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C673" s="6"/>
     </row>
-    <row r="674" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C674" s="6"/>
     </row>
-    <row r="675" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C675" s="6"/>
     </row>
-    <row r="676" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C676" s="6"/>
     </row>
-    <row r="677" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C677" s="6"/>
     </row>
-    <row r="678" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C678" s="6"/>
     </row>
-    <row r="679" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C679" s="6"/>
     </row>
-    <row r="680" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C680" s="6"/>
     </row>
-    <row r="681" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C681" s="6"/>
     </row>
-    <row r="682" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C682" s="6"/>
     </row>
-    <row r="683" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C683" s="6"/>
     </row>
-    <row r="684" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C684" s="6"/>
     </row>
-    <row r="685" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C685" s="6"/>
     </row>
-    <row r="686" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C686" s="6"/>
     </row>
-    <row r="687" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C687" s="6"/>
     </row>
-    <row r="688" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C688" s="6"/>
     </row>
-    <row r="689" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C689" s="6"/>
     </row>
-    <row r="690" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C690" s="6"/>
     </row>
-    <row r="691" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C691" s="6"/>
     </row>
-    <row r="692" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C692" s="6"/>
     </row>
-    <row r="693" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C693" s="6"/>
     </row>
-    <row r="694" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C694" s="6"/>
     </row>
-    <row r="695" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C695" s="6"/>
     </row>
-    <row r="696" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C696" s="6"/>
     </row>
-    <row r="697" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C697" s="6"/>
     </row>
-    <row r="698" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C698" s="6"/>
     </row>
-    <row r="699" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C699" s="6"/>
     </row>
-    <row r="700" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C700" s="6"/>
     </row>
-    <row r="701" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C701" s="6"/>
     </row>
-    <row r="702" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C702" s="6"/>
     </row>
-    <row r="703" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C703" s="6"/>
     </row>
-    <row r="704" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C704" s="6"/>
     </row>
-    <row r="705" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C705" s="6"/>
     </row>
-    <row r="706" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C706" s="6"/>
     </row>
-    <row r="707" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C707" s="6"/>
     </row>
-    <row r="708" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C708" s="6"/>
     </row>
-    <row r="709" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C709" s="6"/>
     </row>
-    <row r="710" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C710" s="6"/>
     </row>
-    <row r="711" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C711" s="6"/>
     </row>
-    <row r="712" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C712" s="6"/>
     </row>
-    <row r="713" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C713" s="6"/>
     </row>
-    <row r="714" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C714" s="6"/>
     </row>
-    <row r="715" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C715" s="6"/>
     </row>
-    <row r="716" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C716" s="6"/>
     </row>
-    <row r="717" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C717" s="6"/>
     </row>
-    <row r="718" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C718" s="6"/>
     </row>
-    <row r="719" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C719" s="6"/>
     </row>
-    <row r="720" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C720" s="6"/>
     </row>
-    <row r="721" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C721" s="6"/>
     </row>
-    <row r="722" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C722" s="6"/>
     </row>
-    <row r="723" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C723" s="6"/>
     </row>
-    <row r="724" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C724" s="6"/>
     </row>
-    <row r="725" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C725" s="6"/>
     </row>
-    <row r="726" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C726" s="6"/>
     </row>
-    <row r="727" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C727" s="6"/>
     </row>
-    <row r="728" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C728" s="6"/>
     </row>
-    <row r="729" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C729" s="6"/>
     </row>
-    <row r="730" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C730" s="6"/>
     </row>
-    <row r="731" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C731" s="6"/>
     </row>
-    <row r="732" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C732" s="6"/>
     </row>
-    <row r="733" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C733" s="6"/>
     </row>
-    <row r="734" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C734" s="6"/>
     </row>
-    <row r="735" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C735" s="6"/>
     </row>
-    <row r="736" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C736" s="6"/>
     </row>
-    <row r="737" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C737" s="6"/>
     </row>
-    <row r="738" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C738" s="6"/>
     </row>
-    <row r="739" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C739" s="6"/>
     </row>
-    <row r="740" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C740" s="6"/>
     </row>
-    <row r="741" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C741" s="6"/>
     </row>
-    <row r="742" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C742" s="6"/>
     </row>
-    <row r="743" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C743" s="6"/>
     </row>
-    <row r="744" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C744" s="6"/>
     </row>
-    <row r="745" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C745" s="6"/>
     </row>
-    <row r="746" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C746" s="6"/>
     </row>
-    <row r="747" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C747" s="6"/>
     </row>
-    <row r="748" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C748" s="6"/>
     </row>
-    <row r="749" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C749" s="6"/>
     </row>
-    <row r="750" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C750" s="6"/>
     </row>
-    <row r="751" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C751" s="6"/>
     </row>
-    <row r="752" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C752" s="6"/>
     </row>
-    <row r="753" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C753" s="6"/>
     </row>
-    <row r="754" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C754" s="6"/>
     </row>
-    <row r="755" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C755" s="6"/>
     </row>
-    <row r="756" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C756" s="6"/>
     </row>
-    <row r="757" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C757" s="6"/>
     </row>
-    <row r="758" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C758" s="6"/>
     </row>
-    <row r="759" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C759" s="6"/>
     </row>
-    <row r="760" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C760" s="6"/>
     </row>
-    <row r="761" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C761" s="6"/>
     </row>
-    <row r="762" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C762" s="6"/>
     </row>
-    <row r="763" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C763" s="6"/>
     </row>
-    <row r="764" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C764" s="6"/>
     </row>
-    <row r="765" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C765" s="6"/>
     </row>
-    <row r="766" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C766" s="6"/>
     </row>
-    <row r="767" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C767" s="6"/>
     </row>
-    <row r="768" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C768" s="6"/>
     </row>
-    <row r="769" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C769" s="6"/>
     </row>
-    <row r="770" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C770" s="6"/>
     </row>
-    <row r="771" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C771" s="6"/>
     </row>
-    <row r="772" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C772" s="6"/>
     </row>
-    <row r="773" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C773" s="6"/>
     </row>
-    <row r="774" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C774" s="6"/>
     </row>
-    <row r="775" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C775" s="6"/>
     </row>
-    <row r="776" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C776" s="6"/>
     </row>
-    <row r="777" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C777" s="6"/>
     </row>
-    <row r="778" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C778" s="6"/>
     </row>
-    <row r="779" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C779" s="6"/>
     </row>
-    <row r="780" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C780" s="6"/>
     </row>
-    <row r="781" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C781" s="6"/>
     </row>
-    <row r="782" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C782" s="6"/>
     </row>
-    <row r="783" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C783" s="6"/>
     </row>
-    <row r="784" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C784" s="6"/>
     </row>
-    <row r="785" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C785" s="6"/>
     </row>
-    <row r="786" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C786" s="6"/>
     </row>
-    <row r="787" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C787" s="6"/>
     </row>
-    <row r="788" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C788" s="6"/>
     </row>
-    <row r="789" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C789" s="6"/>
     </row>
-    <row r="790" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C790" s="6"/>
     </row>
-    <row r="791" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C791" s="6"/>
     </row>
-    <row r="792" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C792" s="6"/>
     </row>
-    <row r="793" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C793" s="6"/>
     </row>
-    <row r="794" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C794" s="6"/>
     </row>
-    <row r="795" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C795" s="6"/>
     </row>
-    <row r="796" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C796" s="6"/>
     </row>
-    <row r="797" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C797" s="6"/>
     </row>
-    <row r="798" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C798" s="6"/>
     </row>
-    <row r="799" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C799" s="6"/>
     </row>
-    <row r="800" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C800" s="6"/>
     </row>
-    <row r="801" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C801" s="6"/>
     </row>
-    <row r="802" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C802" s="6"/>
     </row>
-    <row r="803" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C803" s="6"/>
     </row>
-    <row r="804" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C804" s="6"/>
     </row>
-    <row r="805" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C805" s="6"/>
     </row>
-    <row r="806" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C806" s="6"/>
     </row>
-    <row r="807" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C807" s="6"/>
     </row>
-    <row r="808" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C808" s="6"/>
     </row>
-    <row r="809" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C809" s="6"/>
     </row>
-    <row r="810" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C810" s="6"/>
     </row>
-    <row r="811" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C811" s="6"/>
     </row>
-    <row r="812" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C812" s="6"/>
     </row>
-    <row r="813" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C813" s="6"/>
     </row>
-    <row r="814" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C814" s="6"/>
     </row>
-    <row r="815" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C815" s="6"/>
     </row>
-    <row r="816" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C816" s="6"/>
     </row>
-    <row r="817" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C817" s="6"/>
     </row>
-    <row r="818" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C818" s="6"/>
     </row>
-    <row r="819" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C819" s="6"/>
     </row>
-    <row r="820" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C820" s="6"/>
     </row>
-    <row r="821" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C821" s="6"/>
     </row>
-    <row r="822" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C822" s="6"/>
     </row>
-    <row r="823" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C823" s="6"/>
     </row>
-    <row r="824" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C824" s="6"/>
     </row>
-    <row r="825" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C825" s="6"/>
     </row>
-    <row r="826" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C826" s="6"/>
     </row>
-    <row r="827" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C827" s="6"/>
     </row>
-    <row r="828" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C828" s="6"/>
     </row>
-    <row r="829" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C829" s="6"/>
     </row>
-    <row r="830" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C830" s="6"/>
     </row>
-    <row r="831" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C831" s="6"/>
     </row>
-    <row r="832" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C832" s="6"/>
     </row>
-    <row r="833" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C833" s="6"/>
     </row>
-    <row r="834" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C834" s="6"/>
     </row>
-    <row r="835" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C835" s="6"/>
     </row>
-    <row r="836" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C836" s="6"/>
     </row>
-    <row r="837" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C837" s="6"/>
     </row>
-    <row r="838" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C838" s="6"/>
     </row>
-    <row r="839" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C839" s="6"/>
     </row>
-    <row r="840" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C840" s="6"/>
     </row>
-    <row r="841" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C841" s="6"/>
     </row>
-    <row r="842" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C842" s="6"/>
     </row>
-    <row r="843" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C843" s="6"/>
     </row>
-    <row r="844" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C844" s="6"/>
     </row>
-    <row r="845" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C845" s="6"/>
     </row>
-    <row r="846" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C846" s="6"/>
     </row>
-    <row r="847" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C847" s="6"/>
     </row>
-    <row r="848" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C848" s="6"/>
     </row>
-    <row r="849" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C849" s="6"/>
     </row>
-    <row r="850" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C850" s="6"/>
     </row>
-    <row r="851" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C851" s="6"/>
     </row>
-    <row r="852" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C852" s="6"/>
     </row>
-    <row r="853" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C853" s="6"/>
     </row>
-    <row r="854" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C854" s="6"/>
     </row>
-    <row r="855" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C855" s="6"/>
     </row>
-    <row r="856" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C856" s="6"/>
     </row>
-    <row r="857" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C857" s="6"/>
     </row>
-    <row r="858" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C858" s="6"/>
     </row>
-    <row r="859" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C859" s="6"/>
     </row>
-    <row r="860" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C860" s="6"/>
     </row>
-    <row r="861" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C861" s="6"/>
     </row>
-    <row r="862" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C862" s="6"/>
     </row>
-    <row r="863" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C863" s="6"/>
     </row>
-    <row r="864" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C864" s="6"/>
     </row>
-    <row r="865" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C865" s="6"/>
     </row>
-    <row r="866" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C866" s="6"/>
     </row>
-    <row r="867" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C867" s="6"/>
     </row>
-    <row r="868" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C868" s="6"/>
     </row>
-    <row r="869" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C869" s="6"/>
     </row>
-    <row r="870" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C870" s="6"/>
     </row>
-    <row r="871" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C871" s="6"/>
     </row>
-    <row r="872" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C872" s="6"/>
     </row>
-    <row r="873" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C873" s="6"/>
     </row>
-    <row r="874" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C874" s="6"/>
     </row>
-    <row r="875" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C875" s="6"/>
     </row>
-    <row r="876" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C876" s="6"/>
     </row>
-    <row r="877" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C877" s="6"/>
     </row>
-    <row r="878" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C878" s="6"/>
     </row>
-    <row r="879" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C879" s="6"/>
     </row>
-    <row r="880" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C880" s="6"/>
     </row>
-    <row r="881" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C881" s="6"/>
     </row>
-    <row r="882" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C882" s="6"/>
     </row>
-    <row r="883" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C883" s="6"/>
     </row>
-    <row r="884" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C884" s="6"/>
     </row>
-    <row r="885" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C885" s="6"/>
     </row>
-    <row r="886" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C886" s="6"/>
     </row>
-    <row r="887" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C887" s="6"/>
     </row>
-    <row r="888" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C888" s="6"/>
     </row>
-    <row r="889" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C889" s="6"/>
     </row>
-    <row r="890" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C890" s="6"/>
     </row>
-    <row r="891" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C891" s="6"/>
     </row>
-    <row r="892" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C892" s="6"/>
     </row>
-    <row r="893" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C893" s="6"/>
     </row>
-    <row r="894" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C894" s="6"/>
     </row>
-    <row r="895" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C895" s="6"/>
     </row>
-    <row r="896" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C896" s="6"/>
     </row>
-    <row r="897" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C897" s="6"/>
     </row>
-    <row r="898" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C898" s="6"/>
     </row>
-    <row r="899" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C899" s="6"/>
     </row>
-    <row r="900" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C900" s="6"/>
     </row>
-    <row r="901" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C901" s="6"/>
     </row>
-    <row r="902" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C902" s="6"/>
     </row>
-    <row r="903" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C903" s="6"/>
     </row>
-    <row r="904" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C904" s="6"/>
     </row>
-    <row r="905" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C905" s="6"/>
     </row>
-    <row r="906" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C906" s="6"/>
     </row>
-    <row r="907" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C907" s="6"/>
     </row>
-    <row r="908" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C908" s="6"/>
     </row>
-    <row r="909" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C909" s="6"/>
     </row>
-    <row r="910" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C910" s="6"/>
     </row>
-    <row r="911" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C911" s="6"/>
     </row>
-    <row r="912" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C912" s="6"/>
     </row>
-    <row r="913" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C913" s="6"/>
     </row>
-    <row r="914" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C914" s="6"/>
     </row>
-    <row r="915" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C915" s="6"/>
     </row>
-    <row r="916" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C916" s="6"/>
     </row>
-    <row r="917" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C917" s="6"/>
     </row>
-    <row r="918" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C918" s="6"/>
     </row>
-    <row r="919" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C919" s="6"/>
     </row>
-    <row r="920" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C920" s="6"/>
     </row>
-    <row r="921" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C921" s="6"/>
     </row>
-    <row r="922" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C922" s="6"/>
     </row>
-    <row r="923" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C923" s="6"/>
     </row>
-    <row r="924" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C924" s="6"/>
     </row>
-    <row r="925" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C925" s="6"/>
     </row>
-    <row r="926" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C926" s="6"/>
     </row>
-    <row r="927" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C927" s="6"/>
     </row>
-    <row r="928" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C928" s="6"/>
     </row>
-    <row r="929" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C929" s="6"/>
     </row>
-    <row r="930" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C930" s="6"/>
     </row>
-    <row r="931" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C931" s="6"/>
     </row>
-    <row r="932" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C932" s="6"/>
     </row>
-    <row r="933" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C933" s="6"/>
     </row>
-    <row r="934" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C934" s="6"/>
     </row>
-    <row r="935" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C935" s="6"/>
     </row>
-    <row r="936" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C936" s="6"/>
     </row>
-    <row r="937" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C937" s="6"/>
     </row>
-    <row r="938" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C938" s="6"/>
     </row>
-    <row r="939" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C939" s="6"/>
     </row>
-    <row r="940" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C940" s="6"/>
     </row>
-    <row r="941" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C941" s="6"/>
     </row>
-    <row r="942" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C942" s="6"/>
     </row>
-    <row r="943" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C943" s="6"/>
     </row>
-    <row r="944" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C944" s="6"/>
     </row>
-    <row r="945" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C945" s="6"/>
     </row>
-    <row r="946" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C946" s="6"/>
     </row>
-    <row r="947" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C947" s="6"/>
     </row>
-    <row r="948" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C948" s="6"/>
     </row>
-    <row r="949" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C949" s="6"/>
     </row>
-    <row r="950" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C950" s="6"/>
     </row>
-    <row r="951" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C951" s="6"/>
     </row>
-    <row r="952" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C952" s="6"/>
     </row>
-    <row r="953" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C953" s="6"/>
     </row>
-    <row r="954" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C954" s="6"/>
     </row>
-    <row r="955" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C955" s="6"/>
     </row>
-    <row r="956" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C956" s="6"/>
     </row>
-    <row r="957" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C957" s="6"/>
     </row>
-    <row r="958" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C958" s="6"/>
     </row>
-    <row r="959" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C959" s="6"/>
     </row>
-    <row r="960" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C960" s="6"/>
     </row>
-    <row r="961" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C961" s="6"/>
     </row>
-    <row r="962" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C962" s="6"/>
     </row>
-    <row r="963" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C963" s="6"/>
     </row>
-    <row r="964" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C964" s="6"/>
     </row>
-    <row r="965" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C965" s="6"/>
     </row>
-    <row r="966" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C966" s="6"/>
     </row>
-    <row r="967" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C967" s="6"/>
     </row>
-    <row r="968" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C968" s="6"/>
     </row>
-    <row r="969" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C969" s="6"/>
     </row>
-    <row r="970" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C970" s="6"/>
     </row>
-    <row r="971" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C971" s="6"/>
     </row>
-    <row r="972" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C972" s="6"/>
     </row>
-    <row r="973" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C973" s="6"/>
     </row>
-    <row r="974" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C974" s="6"/>
     </row>
-    <row r="975" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C975" s="6"/>
     </row>
-    <row r="976" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C976" s="6"/>
     </row>
-    <row r="977" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C977" s="6"/>
     </row>
-    <row r="978" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C978" s="6"/>
     </row>
-    <row r="979" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C979" s="6"/>
     </row>
-    <row r="980" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C980" s="6"/>
     </row>
-    <row r="981" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C981" s="6"/>
     </row>
-    <row r="982" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C982" s="6"/>
     </row>
-    <row r="983" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C983" s="6"/>
     </row>
-    <row r="984" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C984" s="6"/>
     </row>
-    <row r="985" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C985" s="6"/>
     </row>
-    <row r="986" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C986" s="6"/>
     </row>
-    <row r="987" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C987" s="6"/>
     </row>
-    <row r="988" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C988" s="6"/>
     </row>
-    <row r="989" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C989" s="6"/>
     </row>
-    <row r="990" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C990" s="6"/>
     </row>
-    <row r="991" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C991" s="6"/>
     </row>
-    <row r="992" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C992" s="6"/>
     </row>
-    <row r="993" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C993" s="6"/>
     </row>
-    <row r="994" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C994" s="6"/>
     </row>
-    <row r="995" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C995" s="6"/>
     </row>
-    <row r="996" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C996" s="6"/>
     </row>
-    <row r="997" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C997" s="6"/>
     </row>
-    <row r="998" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C998" s="6"/>
     </row>
-    <row r="999" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C999" s="6"/>
     </row>
-    <row r="1000" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1000" s="6"/>
     </row>
-    <row r="1001" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1001" s="6"/>
     </row>
-    <row r="1002" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1002" s="6"/>
     </row>
-    <row r="1003" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1003" s="6"/>
     </row>
-    <row r="1004" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1004" s="6"/>
     </row>
-    <row r="1005" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1005" s="6"/>
     </row>
-    <row r="1006" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1006" s="6"/>
     </row>
-    <row r="1007" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1007" s="6"/>
     </row>
-    <row r="1008" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1008" s="6"/>
     </row>
-    <row r="1009" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1009" s="6"/>
     </row>
-    <row r="1010" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1010" s="6"/>
     </row>
-    <row r="1011" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1011" s="6"/>
     </row>
-    <row r="1012" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1012" s="6"/>
     </row>
-    <row r="1013" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1013" s="6"/>
     </row>
-    <row r="1014" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1014" s="6"/>
     </row>
-    <row r="1015" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1015" s="6"/>
     </row>
-    <row r="1016" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1016" s="6"/>
     </row>
-    <row r="1017" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1017" s="6"/>
     </row>
-    <row r="1018" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1018" s="6"/>
     </row>
-    <row r="1019" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1019" s="6"/>
     </row>
-    <row r="1020" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1020" s="6"/>
     </row>
-    <row r="1021" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1021" s="6"/>
     </row>
-    <row r="1022" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1022" s="6"/>
     </row>
-    <row r="1023" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1023" s="6"/>
     </row>
-    <row r="1024" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1024" s="6"/>
     </row>
-    <row r="1025" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1025" s="6"/>
     </row>
-    <row r="1026" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1026" s="6"/>
     </row>
-    <row r="1027" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1027" s="6"/>
     </row>
-    <row r="1028" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1028" s="6"/>
     </row>
-    <row r="1029" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1029" s="6"/>
     </row>
-    <row r="1030" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1030" s="6"/>
     </row>
-    <row r="1031" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1031" s="6"/>
     </row>
-    <row r="1032" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1032" s="6"/>
     </row>
-    <row r="1033" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1033" s="6"/>
     </row>
-    <row r="1034" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1034" s="6"/>
     </row>
-    <row r="1035" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1035" s="6"/>
     </row>
-    <row r="1036" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1036" s="6"/>
     </row>
-    <row r="1037" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1037" s="6"/>
     </row>
-    <row r="1038" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1038" s="6"/>
     </row>
-    <row r="1039" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1039" s="6"/>
     </row>
-    <row r="1040" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1040" s="6"/>
     </row>
-    <row r="1041" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1041" s="6"/>
     </row>
-    <row r="1042" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1042" s="6"/>
     </row>
-    <row r="1043" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1043" s="6"/>
     </row>
-    <row r="1044" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1044" s="6"/>
     </row>
-    <row r="1045" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1045" s="6"/>
     </row>
-    <row r="1046" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1046" s="6"/>
     </row>
-    <row r="1047" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1047" s="6"/>
     </row>
-    <row r="1048" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1048" s="6"/>
     </row>
-    <row r="1049" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1049" s="6"/>
     </row>
-    <row r="1050" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1050" s="6"/>
     </row>
-    <row r="1051" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1051" s="6"/>
     </row>
-    <row r="1052" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1052" s="6"/>
     </row>
-    <row r="1053" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1053" s="6"/>
     </row>
-    <row r="1054" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1054" s="6"/>
     </row>
-    <row r="1055" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1055" s="6"/>
     </row>
-    <row r="1056" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1056" s="6"/>
     </row>
-    <row r="1057" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1057" s="6"/>
     </row>
-    <row r="1058" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1058" s="6"/>
     </row>
-    <row r="1059" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1059" s="6"/>
     </row>
-    <row r="1060" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1060" s="6"/>
     </row>
-    <row r="1061" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1061" s="6"/>
     </row>
-    <row r="1062" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1062" s="6"/>
     </row>
-    <row r="1063" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1063" s="6"/>
     </row>
-    <row r="1064" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1064" s="6"/>
     </row>
-    <row r="1065" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1065" s="6"/>
     </row>
-    <row r="1066" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1066" s="6"/>
     </row>
-    <row r="1067" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1067" s="6"/>
     </row>
-    <row r="1068" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1068" s="6"/>
     </row>
-    <row r="1069" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1069" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1069" s="6"/>
     </row>
-    <row r="1070" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1070" s="6"/>
     </row>
-    <row r="1071" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1071" s="6"/>
     </row>
-    <row r="1072" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1072" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1072" s="6"/>
     </row>
-    <row r="1073" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1073" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1073" s="6"/>
     </row>
-    <row r="1074" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1074" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1074" s="6"/>
     </row>
-    <row r="1075" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1075" s="6"/>
     </row>
-    <row r="1076" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1076" s="6"/>
     </row>
-    <row r="1077" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1077" s="6"/>
     </row>
-    <row r="1078" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1078" s="6"/>
     </row>
-    <row r="1079" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1079" s="6"/>
     </row>
-    <row r="1080" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1080" s="6"/>
     </row>
-    <row r="1081" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1081" s="6"/>
     </row>
-    <row r="1082" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1082" s="6"/>
     </row>
-    <row r="1083" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1083" s="6"/>
     </row>
-    <row r="1084" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1084" s="6"/>
     </row>
-    <row r="1085" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1085" s="6"/>
     </row>
-    <row r="1086" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1086" s="6"/>
     </row>
-    <row r="1087" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1087" s="6"/>
     </row>
-    <row r="1088" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1088" s="6"/>
     </row>
-    <row r="1089" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1089" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1089" s="6"/>
     </row>
-    <row r="1090" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1090" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1090" s="6"/>
     </row>
-    <row r="1091" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1091" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1091" s="6"/>
     </row>
-    <row r="1092" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1092" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1092" s="6"/>
     </row>
-    <row r="1093" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1093" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1093" s="6"/>
     </row>
-    <row r="1094" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1094" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1094" s="6"/>
     </row>
-    <row r="1095" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1095" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1095" s="6"/>
     </row>
-    <row r="1096" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1096" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1096" s="6"/>
     </row>
-    <row r="1097" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1097" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1097" s="6"/>
     </row>
-    <row r="1098" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1098" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1098" s="6"/>
     </row>
-    <row r="1099" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1099" s="6"/>
     </row>
-    <row r="1100" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1100" s="6"/>
     </row>
-    <row r="1101" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1101" s="6"/>
     </row>
-    <row r="1102" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1102" s="6"/>
     </row>
-    <row r="1103" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1103" s="6"/>
     </row>
-    <row r="1104" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1104" s="6"/>
     </row>
-    <row r="1105" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1105" s="6"/>
     </row>
-    <row r="1106" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1106" s="6"/>
     </row>
-    <row r="1107" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1107" s="6"/>
     </row>
-    <row r="1108" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1108" s="6"/>
     </row>
-    <row r="1109" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1109" s="6"/>
     </row>
-    <row r="1110" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1110" s="6"/>
     </row>
-    <row r="1111" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1111" s="6"/>
     </row>
-    <row r="1112" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1112" s="6"/>
     </row>
-    <row r="1113" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1113" s="6"/>
     </row>
-    <row r="1114" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1114" s="6"/>
     </row>
-    <row r="1115" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1115" s="6"/>
     </row>
-    <row r="1116" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1116" s="6"/>
     </row>
-    <row r="1117" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1117" s="6"/>
     </row>
-    <row r="1118" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1118" s="6"/>
     </row>
-    <row r="1119" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1119" s="6"/>
     </row>
-    <row r="1120" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1120" s="6"/>
     </row>
-    <row r="1121" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1121" s="6"/>
     </row>
-    <row r="1122" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1122" s="6"/>
     </row>
-    <row r="1123" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1123" s="6"/>
     </row>
-    <row r="1124" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1124" s="6"/>
     </row>
-    <row r="1125" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1125" s="6"/>
     </row>
-    <row r="1126" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1126" s="6"/>
     </row>
-    <row r="1127" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1127" s="6"/>
     </row>
-    <row r="1128" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1128" s="6"/>
     </row>
-    <row r="1129" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1129" s="6"/>
     </row>
-    <row r="1130" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1130" s="6"/>
     </row>
-    <row r="1131" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1131" s="6"/>
     </row>
-    <row r="1132" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1132" s="6"/>
     </row>
-    <row r="1133" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1133" s="6"/>
     </row>
-    <row r="1134" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1134" s="6"/>
     </row>
-    <row r="1135" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1135" s="6"/>
     </row>
-    <row r="1136" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1136" s="6"/>
     </row>
-    <row r="1137" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1137" s="6"/>
     </row>
-    <row r="1138" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1138" s="6"/>
     </row>
-    <row r="1139" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1139" s="6"/>
     </row>
-    <row r="1140" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1140" s="6"/>
     </row>
-    <row r="1141" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1141" s="6"/>
     </row>
-    <row r="1142" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1142" s="6"/>
     </row>
-    <row r="1143" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1143" s="6"/>
     </row>
-    <row r="1144" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1144" s="6"/>
     </row>
-    <row r="1145" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1145" s="6"/>
     </row>
-    <row r="1146" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1146" s="6"/>
     </row>
-    <row r="1147" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1147" s="6"/>
     </row>
-    <row r="1148" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1148" s="6"/>
     </row>
-    <row r="1149" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1149" s="6"/>
     </row>
-    <row r="1150" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1150" s="6"/>
     </row>
-    <row r="1151" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1151" s="6"/>
     </row>
-    <row r="1152" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1152" s="6"/>
     </row>
-    <row r="1153" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1153" s="6"/>
     </row>
-    <row r="1154" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1154" s="6"/>
     </row>
-    <row r="1155" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1155" s="6"/>
     </row>
-    <row r="1156" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1156" s="6"/>
     </row>
-    <row r="1157" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1157" s="6"/>
     </row>
-    <row r="1158" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1158" s="6"/>
     </row>
-    <row r="1159" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1159" s="6"/>
     </row>
-    <row r="1160" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1160" s="6"/>
     </row>
-    <row r="1161" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1161" s="6"/>
     </row>
-    <row r="1162" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1162" s="6"/>
     </row>
-    <row r="1163" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1163" s="6"/>
     </row>
-    <row r="1164" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1164" s="6"/>
     </row>
-    <row r="1165" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1165" s="6"/>
     </row>
-    <row r="1166" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1166" s="6"/>
     </row>
-    <row r="1167" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1167" s="6"/>
     </row>
-    <row r="1168" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1168" s="6"/>
     </row>
-    <row r="1169" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1169" s="6"/>
     </row>
-    <row r="1170" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1170" s="6"/>
     </row>
-    <row r="1171" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1171" s="6"/>
     </row>
-    <row r="1172" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1172" s="6"/>
     </row>
-    <row r="1173" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1173" s="6"/>
     </row>
-    <row r="1174" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1174" s="6"/>
     </row>
-    <row r="1175" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1175" s="6"/>
     </row>
-    <row r="1176" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1176" s="6"/>
     </row>
-    <row r="1177" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1177" s="6"/>
     </row>
-    <row r="1178" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1178" s="6"/>
     </row>
-    <row r="1179" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1179" s="6"/>
     </row>
-    <row r="1180" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1180" s="6"/>
     </row>
-    <row r="1181" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1181" s="6"/>
     </row>
-    <row r="1182" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1182" s="6"/>
     </row>
-    <row r="1183" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1183" s="6"/>
     </row>
-    <row r="1184" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1184" s="6"/>
     </row>
-    <row r="1185" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1185" s="6"/>
     </row>
-    <row r="1186" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1186" s="6"/>
     </row>
-    <row r="1187" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1187" s="6"/>
     </row>
-    <row r="1188" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1188" s="6"/>
     </row>
-    <row r="1189" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1189" s="6"/>
     </row>
-    <row r="1190" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1190" s="6"/>
     </row>
-    <row r="1191" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1191" s="6"/>
     </row>
-    <row r="1192" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1192" s="6"/>
     </row>
-    <row r="1193" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1193" s="6"/>
     </row>
-    <row r="1194" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1194" s="6"/>
     </row>
-    <row r="1195" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1195" s="6"/>
     </row>
-    <row r="1196" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1196" s="6"/>
     </row>
-    <row r="1197" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1197" s="6"/>
     </row>
-    <row r="1198" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1198" s="6"/>
     </row>
-    <row r="1199" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1199" s="6"/>
     </row>
-    <row r="1200" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1200" s="6"/>
     </row>
-    <row r="1201" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1201" s="6"/>
     </row>
-    <row r="1202" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1202" s="6"/>
     </row>
-    <row r="1203" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1203" s="6"/>
     </row>
-    <row r="1204" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1204" s="6"/>
     </row>
-    <row r="1205" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1205" s="6"/>
     </row>
-    <row r="1206" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1206" s="6"/>
     </row>
-    <row r="1207" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1207" s="6"/>
     </row>
-    <row r="1208" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1208" s="6"/>
     </row>
-    <row r="1209" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1209" s="6"/>
     </row>
-    <row r="1210" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1210" s="6"/>
     </row>
-    <row r="1211" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1211" s="6"/>
     </row>
-    <row r="1212" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1212" s="6"/>
     </row>
-    <row r="1213" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1213" s="6"/>
     </row>
-    <row r="1214" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1214" s="6"/>
     </row>
-    <row r="1215" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1215" s="6"/>
     </row>
-    <row r="1216" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1216" s="6"/>
     </row>
-    <row r="1217" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1217" s="6"/>
     </row>
-    <row r="1218" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1218" s="6"/>
     </row>
-    <row r="1219" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1219" s="6"/>
     </row>
-    <row r="1220" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1220" s="6"/>
     </row>
-    <row r="1221" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1221" s="6"/>
     </row>
-    <row r="1222" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1222" s="6"/>
     </row>
-    <row r="1223" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1223" s="6"/>
     </row>
-    <row r="1224" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1224" s="6"/>
     </row>
-    <row r="1225" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1225" s="6"/>
     </row>
-    <row r="1226" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1226" s="6"/>
     </row>
-    <row r="1227" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1227" s="6"/>
     </row>
-    <row r="1228" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1228" s="6"/>
     </row>
-    <row r="1229" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1229" s="6"/>
     </row>
-    <row r="1230" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1230" s="6"/>
     </row>
-    <row r="1231" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1231" s="6"/>
     </row>
-    <row r="1232" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1232" s="6"/>
     </row>
-    <row r="1233" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1233" s="6"/>
     </row>
-    <row r="1234" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1234" s="6"/>
     </row>
-    <row r="1235" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1235" s="6"/>
     </row>
-    <row r="1236" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1236" s="6"/>
     </row>
-    <row r="1237" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1237" s="6"/>
     </row>
-    <row r="1238" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1238" s="6"/>
     </row>
-    <row r="1239" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1239" s="6"/>
     </row>
-    <row r="1240" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1240" s="6"/>
     </row>
-    <row r="1241" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1241" s="6"/>
     </row>
-    <row r="1242" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1242" s="6"/>
     </row>
-    <row r="1243" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1243" s="6"/>
     </row>
-    <row r="1244" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1244" s="6"/>
     </row>
-    <row r="1245" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1245" s="6"/>
     </row>
-    <row r="1246" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1246" s="6"/>
     </row>
-    <row r="1247" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1247" s="6"/>
     </row>
-    <row r="1248" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1248" s="6"/>
     </row>
-    <row r="1249" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1249" s="6"/>
     </row>
-    <row r="1250" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1250" s="6"/>
     </row>
-    <row r="1251" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1251" s="6"/>
     </row>
-    <row r="1252" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1252" s="6"/>
     </row>
-    <row r="1253" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1253" s="6"/>
     </row>
-    <row r="1254" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1254" s="6"/>
     </row>
-    <row r="1255" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1255" s="6"/>
     </row>
-    <row r="1256" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1256" s="6"/>
     </row>
-    <row r="1257" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1257" s="6"/>
     </row>
-    <row r="1258" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1258" s="6"/>
     </row>
-    <row r="1259" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1259" s="6"/>
     </row>
-    <row r="1260" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1260" s="6"/>
     </row>
-    <row r="1261" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1261" s="6"/>
     </row>
-    <row r="1262" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1262" s="6"/>
     </row>
-    <row r="1263" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1263" s="6"/>
     </row>
-    <row r="1264" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1264" s="6"/>
     </row>
-    <row r="1265" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1265" s="6"/>
     </row>
-    <row r="1266" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1266" s="6"/>
     </row>
-    <row r="1267" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1267" s="6"/>
     </row>
-    <row r="1268" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1268" s="6"/>
     </row>
-    <row r="1269" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1269" s="6"/>
     </row>
-    <row r="1270" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1270" s="6"/>
     </row>
-    <row r="1271" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1271" s="6"/>
     </row>
-    <row r="1272" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1272" s="6"/>
     </row>
-    <row r="1273" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1273" s="6"/>
     </row>
-    <row r="1274" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1274" s="6"/>
     </row>
-    <row r="1275" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1275" s="6"/>
     </row>
-    <row r="1276" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1276" s="6"/>
     </row>
-    <row r="1277" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1277" s="6"/>
     </row>
-    <row r="1278" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1278" s="6"/>
     </row>
-    <row r="1279" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1279" s="6"/>
     </row>
-    <row r="1280" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1280" s="6"/>
     </row>
-    <row r="1281" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1281" s="6"/>
     </row>
-    <row r="1282" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1282" s="6"/>
     </row>
-    <row r="1283" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1283" s="6"/>
     </row>
-    <row r="1284" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1284" s="6"/>
     </row>
-    <row r="1285" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1285" s="6"/>
     </row>
-    <row r="1286" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1286" s="6"/>
     </row>
-    <row r="1287" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1287" s="6"/>
     </row>
-    <row r="1288" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1288" s="6"/>
     </row>
-    <row r="1289" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1289" s="6"/>
     </row>
-    <row r="1290" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1290" s="6"/>
     </row>
-    <row r="1291" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1291" s="6"/>
     </row>
-    <row r="1292" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1292" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1292" s="6"/>
     </row>
-    <row r="1293" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1293" s="6"/>
     </row>
-    <row r="1294" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1294" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1294" s="6"/>
     </row>
-    <row r="1295" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1295" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1295" s="6"/>
     </row>
-    <row r="1296" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1296" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1296" s="6"/>
     </row>
-    <row r="1297" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1297" s="6"/>
     </row>
-    <row r="1298" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1298" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1298" s="6"/>
     </row>
-    <row r="1299" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1299" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1299" s="6"/>
     </row>
-    <row r="1300" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1300" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1300" s="6"/>
     </row>
-    <row r="1301" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1301" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1301" s="6"/>
     </row>
-    <row r="1302" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1302" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1302" s="6"/>
     </row>
-    <row r="1303" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1303" s="6"/>
     </row>
-    <row r="1304" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1304" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1304" s="6"/>
     </row>
-    <row r="1305" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1305" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1305" s="6"/>
     </row>
-    <row r="1306" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1306" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1306" s="6"/>
     </row>
-    <row r="1307" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1307" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1307" s="6"/>
     </row>
-    <row r="1308" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1308" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1308" s="6"/>
     </row>
-    <row r="1309" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1309" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1309" s="6"/>
     </row>
-    <row r="1310" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1310" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1310" s="6"/>
     </row>
-    <row r="1311" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1311" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1311" s="6"/>
     </row>
-    <row r="1312" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1312" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1312" s="6"/>
     </row>
-    <row r="1313" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1313" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1313" s="6"/>
     </row>
-    <row r="1314" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1314" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1314" s="6"/>
     </row>
-    <row r="1315" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1315" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1315" s="6"/>
     </row>
-    <row r="1316" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1316" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1316" s="6"/>
     </row>
-    <row r="1317" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1317" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1317" s="6"/>
     </row>
-    <row r="1318" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1318" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1318" s="6"/>
     </row>
-    <row r="1319" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1319" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1319" s="6"/>
     </row>
-    <row r="1320" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1320" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1320" s="6"/>
     </row>
-    <row r="1321" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1321" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1321" s="6"/>
     </row>
-    <row r="1322" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1322" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1322" s="6"/>
     </row>
-    <row r="1323" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1323" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1323" s="6"/>
     </row>
-    <row r="1324" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1324" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1324" s="6"/>
     </row>
-    <row r="1325" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1325" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1325" s="6"/>
     </row>
-    <row r="1326" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1326" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1326" s="6"/>
     </row>
-    <row r="1327" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1327" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1327" s="6"/>
     </row>
-    <row r="1328" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1328" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1328" s="6"/>
     </row>
-    <row r="1329" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1329" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1329" s="6"/>
     </row>
-    <row r="1330" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1330" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1330" s="6"/>
     </row>
-    <row r="1331" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1331" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1331" s="6"/>
     </row>
-    <row r="1332" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1332" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1332" s="6"/>
     </row>
-    <row r="1333" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1333" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1333" s="6"/>
     </row>
-    <row r="1334" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1334" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1334" s="6"/>
     </row>
-    <row r="1335" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1335" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1335" s="6"/>
     </row>
-    <row r="1336" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1336" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1336" s="6"/>
     </row>
-    <row r="1337" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1337" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1337" s="6"/>
     </row>
-    <row r="1338" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1338" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1338" s="6"/>
     </row>
-    <row r="1339" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1339" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1339" s="6"/>
     </row>
-    <row r="1340" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1340" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1340" s="6"/>
     </row>
-    <row r="1341" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1341" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1341" s="6"/>
     </row>
-    <row r="1342" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1342" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1342" s="6"/>
     </row>
-    <row r="1343" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1343" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1343" s="6"/>
     </row>
-    <row r="1344" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1344" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1344" s="6"/>
     </row>
-    <row r="1345" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1345" s="6"/>
     </row>
-    <row r="1346" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1346" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1346" s="6"/>
     </row>
-    <row r="1347" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1347" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1347" s="6"/>
     </row>
-    <row r="1348" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1348" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1348" s="6"/>
     </row>
-    <row r="1349" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1349" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1349" s="6"/>
     </row>
-    <row r="1350" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1350" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1350" s="6"/>
     </row>
-    <row r="1351" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1351" s="6"/>
     </row>
-    <row r="1352" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1352" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1352" s="6"/>
     </row>
-    <row r="1353" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1353" s="6"/>
     </row>
-    <row r="1354" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1354" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1354" s="6"/>
     </row>
-    <row r="1355" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1355" s="6"/>
     </row>
-    <row r="1356" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1356" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1356" s="6"/>
     </row>
-    <row r="1357" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1357" s="6"/>
     </row>
-    <row r="1358" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1358" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1358" s="6"/>
     </row>
-    <row r="1359" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1359" s="6"/>
     </row>
-    <row r="1360" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1360" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1360" s="6"/>
     </row>
-    <row r="1361" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1361" s="6"/>
     </row>
-    <row r="1362" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1362" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1362" s="6"/>
     </row>
-    <row r="1363" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1363" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1363" s="6"/>
     </row>
-    <row r="1364" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1364" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1364" s="6"/>
     </row>
-    <row r="1365" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1365" s="6"/>
     </row>
-    <row r="1366" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1366" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1366" s="6"/>
     </row>
-    <row r="1367" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1367" s="6"/>
     </row>
-    <row r="1368" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1368" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1368" s="6"/>
     </row>
-    <row r="1369" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1369" s="6"/>
     </row>
-    <row r="1370" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1370" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1370" s="6"/>
     </row>
-    <row r="1371" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1371" s="6"/>
     </row>
-    <row r="1372" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1372" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1372" s="6"/>
     </row>
-    <row r="1373" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1373" s="6"/>
     </row>
-    <row r="1374" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1374" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1374" s="6"/>
     </row>
-    <row r="1375" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1375" s="6"/>
     </row>
-    <row r="1376" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1376" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1376" s="6"/>
     </row>
-    <row r="1377" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1377" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1377" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1377" xr:uid="{9A87A7BC-6129-45C6-81F8-1B71C95B96CA}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Dehiwala"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A247:H1377">
       <sortCondition ref="A1:A1377"/>
     </sortState>

--- a/src/main/resources/water_data.xlsx
+++ b/src/main/resources/water_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ludowica\IdeaProjects\water-quality-analysis-api\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AF5677-6C6F-400E-A175-E07F460F6F5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA3593-0236-435D-9596-4BE280A88CFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="273" xr2:uid="{E980897B-928A-4A84-8AF5-3F9278A3BA43}"/>
   </bookViews>
@@ -605,7 +605,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -874,13 +874,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2303,7 +2303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>74</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>77</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>97.2</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>78</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>79</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>80</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>81</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>82</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>83</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>84</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>85</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>86</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>87</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>88</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>89</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>90</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>91</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>92</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>93</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>104</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>105</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>106</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>108</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>109</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
         <v>110</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>111</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
         <v>112</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>113</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>114</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>115</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>116</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
         <v>117</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="19">
         <v>311</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>109.7</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="19">
         <v>312</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="19">
         <v>313</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="19">
         <v>486</v>
       </c>
@@ -19903,7 +19903,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="19">
         <v>487</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="19">
         <v>488</v>
       </c>
@@ -19979,7 +19979,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="19">
         <v>489</v>
       </c>
@@ -20017,7 +20017,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="19">
         <v>490</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="19">
         <v>491</v>
       </c>
@@ -20093,7 +20093,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="19">
         <v>492</v>
       </c>
@@ -20131,7 +20131,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" s="19">
         <v>493</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="19">
         <v>494</v>
       </c>
@@ -20207,7 +20207,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="19">
         <v>495</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="19">
         <v>496</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="19">
         <v>497</v>
       </c>
@@ -20321,7 +20321,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" s="19">
         <v>498</v>
       </c>
@@ -20359,7 +20359,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="19">
         <v>499</v>
       </c>
@@ -20397,7 +20397,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" s="19">
         <v>500</v>
       </c>
@@ -20435,7 +20435,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="19">
         <v>501</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" s="19">
         <v>502</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" s="19">
         <v>503</v>
       </c>
@@ -20549,7 +20549,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="19">
         <v>504</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" s="19">
         <v>505</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="19">
         <v>506</v>
       </c>
@@ -20663,7 +20663,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" s="19">
         <v>507</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" s="19">
         <v>508</v>
       </c>
@@ -20739,7 +20739,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" s="19">
         <v>509</v>
       </c>
@@ -20777,7 +20777,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" s="19">
         <v>510</v>
       </c>
@@ -20815,7 +20815,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="19">
         <v>511</v>
       </c>
@@ -20853,7 +20853,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="19">
         <v>512</v>
       </c>
@@ -20891,7 +20891,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="19">
         <v>513</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="19">
         <v>514</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="19">
         <v>515</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="19">
         <v>516</v>
       </c>
@@ -21043,7 +21043,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="19">
         <v>517</v>
       </c>
@@ -21081,7 +21081,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="19">
         <v>518</v>
       </c>
@@ -21119,7 +21119,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="19">
         <v>519</v>
       </c>
@@ -21157,7 +21157,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="19">
         <v>520</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="19">
         <v>521</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" s="19">
         <v>522</v>
       </c>
@@ -21271,7 +21271,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" s="19">
         <v>523</v>
       </c>
@@ -21309,7 +21309,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="19">
         <v>524</v>
       </c>
@@ -21347,7 +21347,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="19">
         <v>525</v>
       </c>
@@ -21385,7 +21385,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="19">
         <v>526</v>
       </c>
@@ -21423,7 +21423,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="19">
         <v>527</v>
       </c>
@@ -21461,7 +21461,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="19">
         <v>528</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" s="19">
         <v>529</v>
       </c>
@@ -21537,7 +21537,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="19">
         <v>530</v>
       </c>
@@ -21575,7 +21575,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" s="19">
         <v>531</v>
       </c>
@@ -21613,7 +21613,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" s="19">
         <v>532</v>
       </c>
@@ -21651,7 +21651,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" s="19">
         <v>533</v>
       </c>
@@ -21689,7 +21689,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" s="19">
         <v>534</v>
       </c>
@@ -21727,7 +21727,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" s="19">
         <v>535</v>
       </c>
@@ -21765,7 +21765,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" s="19">
         <v>536</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="19">
         <v>537</v>
       </c>
@@ -21841,7 +21841,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="19">
         <v>538</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" s="19">
         <v>539</v>
       </c>
@@ -30967,7 +30967,7 @@
   <autoFilter ref="A1:L1377" xr:uid="{9A87A7BC-6129-45C6-81F8-1B71C95B96CA}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Ja-Ela"/>
+        <filter val="Colombo"/>
       </filters>
     </filterColumn>
   </autoFilter>
